--- a/biology/Botanique/Uapaca_guineensis/Uapaca_guineensis.xlsx
+++ b/biology/Botanique/Uapaca_guineensis/Uapaca_guineensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Uapaca guineensis, le Faux-palétuvier, Palétuvier de rivière ou Palétuvier d'eau douce, est une espèce de plantes à fleurs de la famille des Phyllanthaceae et du genre Uapaca. C'est un arbre d'Afrique tropicale que l'on rencontre depuis la Sierra Leone jusqu'en République démocratique du Congo[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uapaca guineensis, le Faux-palétuvier, Palétuvier de rivière ou Palétuvier d'eau douce, est une espèce de plantes à fleurs de la famille des Phyllanthaceae et du genre Uapaca. C'est un arbre d'Afrique tropicale que l'on rencontre depuis la Sierra Leone jusqu'en République démocratique du Congo.
 </t>
         </is>
       </c>
@@ -511,12 +523,49 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en 1864 par le botaniste suisse Jean Müller[2].
-Ce taxon porte en français les noms vernaculaires ou normalisés « Faux-palétuvier », « Palétuvier d'eau douce » ou « Palétuvier de rivière »[3].
-Synonymes
-Uapaca guineensis a pour synonymes[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1864 par le botaniste suisse Jean Müller.
+Ce taxon porte en français les noms vernaculaires ou normalisés « Faux-palétuvier », « Palétuvier d'eau douce » ou « Palétuvier de rivière ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Uapaca_guineensis</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uapaca_guineensis</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Uapaca guineensis a pour synonymes :
 Antidesma guineensis G.Don
 Antidesma guineensis G.Don ex Hook.
 Uapaca bingervillensis Beille
@@ -524,41 +573,77 @@
 Uapaca gabonensis Pierre ex Pax &amp; K.Hoffm.
 Uapaca guineensis var. guineensis
 Uapaca seretii De Wild.
-Uapaca seretii DeWild.
-Liste des variétés
-Selon Tropicos                                           (21 septembre 2017)[5] (Attention liste brute contenant possiblement des synonymes) :
+Uapaca seretii DeWild.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uapaca_guineensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uapaca_guineensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Uapaca guineensis var. guineensis
 Uapaca guineensis var. sudanica (Beille) Hutch.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Uapaca_guineensis</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Uapaca_guineensis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant.
 </t>
         </is>
       </c>
